--- a/eximbank_internal_list_single.xlsx
+++ b/eximbank_internal_list_single.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutramanagement-my.sharepoint.com/personal/ib_sutra-management_com/Documents/Indrani's Files/Projects/Proposals/Eximbank VN/AML/POC/POC Data/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth Atara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{6ABA6C56-159D-4FCD-812B-37D07326AD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA4F3FD-2692-44E0-BEAF-C133C1399677}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C8DAC-ECCE-482A-A867-0224ACD9638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FBB466C-3968-4EDE-8779-6812DDA7AC29}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>PLACE_OF_BIRTH</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>INTERNAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Le Thi</t>
@@ -893,9 +890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -933,7 +930,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1039,7 +1036,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1181,7 +1178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1191,9 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51522022-97B4-47DB-B900-C2A28E7446F3}">
   <dimension ref="A1:CM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1527,23 +1522,17 @@
         <v>10720255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>90</v>
       </c>
@@ -1551,10 +1540,10 @@
         <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="2"/>
